--- a/doc/cms_documentation.xlsx
+++ b/doc/cms_documentation.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B88A3-6018-4257-8412-E7FBB14B86D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8459281-0B8B-4A46-8F56-3690BF682753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13008" yWindow="1140" windowWidth="10032" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13008" yWindow="1140" windowWidth="10032" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="как" sheetId="1" r:id="rId1"/>
+    <sheet name="базова архитектура" sheetId="2" r:id="rId2"/>
+    <sheet name="потребители" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t xml:space="preserve">*визуализация </t>
   </si>
@@ -34,13 +36,94 @@
   </si>
   <si>
     <t>Front-end разработка:</t>
+  </si>
+  <si>
+    <t>*процес по комуникация със сървърите</t>
+  </si>
+  <si>
+    <t>HTML / CSS / JavaScript</t>
+  </si>
+  <si>
+    <t>Back-end разработка:</t>
+  </si>
+  <si>
+    <t>*архитектура на изчислителна система / логика</t>
+  </si>
+  <si>
+    <t>*архитектура на база данни</t>
+  </si>
+  <si>
+    <t>*сервизи за комуникация с Front-end слой</t>
+  </si>
+  <si>
+    <t>Технология:</t>
+  </si>
+  <si>
+    <t>PHP / MySQL</t>
+  </si>
+  <si>
+    <t>* Java / .NET / Python / Ruby etc.</t>
+  </si>
+  <si>
+    <t>Страница за четене на блог постове</t>
+  </si>
+  <si>
+    <t>Всеки блог пост може да се чете самостоятелно</t>
+  </si>
+  <si>
+    <t>Посетител</t>
+  </si>
+  <si>
+    <t>Модератор</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>Чете</t>
+  </si>
+  <si>
+    <t>Създава</t>
+  </si>
+  <si>
+    <t>Модифицира съществуващо съдържание</t>
+  </si>
+  <si>
+    <t>Изтрива съдържание</t>
+  </si>
+  <si>
+    <t>задача</t>
+  </si>
+  <si>
+    <t>роля, която може да го вижда</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Административна страница за създаване на нови постове</t>
+  </si>
+  <si>
+    <t>модератор / администратор</t>
+  </si>
+  <si>
+    <t>Административна страница за създаване на нови категории блог постове</t>
+  </si>
+  <si>
+    <t>администратора</t>
+  </si>
+  <si>
+    <t>Административна страница за актуализация на съществуващи блог постове</t>
+  </si>
+  <si>
+    <t>административна страница за изтриване на съществуващи блог постове</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +131,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,14 +198,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,30 +508,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD156BAF-3CA4-4881-93A9-1D82848F476D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9C0182-3613-4C72-A136-1ABC6D56239D}">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doc/cms_documentation.xlsx
+++ b/doc/cms_documentation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8459281-0B8B-4A46-8F56-3690BF682753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E99C52-17A7-4467-AFF8-D5B43368B9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13008" yWindow="1140" windowWidth="10032" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="как" sheetId="1" r:id="rId1"/>
-    <sheet name="базова архитектура" sheetId="2" r:id="rId2"/>
-    <sheet name="потребители" sheetId="3" r:id="rId3"/>
+    <sheet name="потребители" sheetId="3" r:id="rId2"/>
+    <sheet name="базова архитектура" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">*визуализация </t>
   </si>
@@ -83,9 +83,6 @@
     <t>Чете</t>
   </si>
   <si>
-    <t>Създава</t>
-  </si>
-  <si>
     <t>Модифицира съществуващо съдържание</t>
   </si>
   <si>
@@ -116,7 +113,16 @@
     <t>Административна страница за актуализация на съществуващи блог постове</t>
   </si>
   <si>
-    <t>административна страница за изтриване на съществуващи блог постове</t>
+    <t>Създава съдържание</t>
+  </si>
+  <si>
+    <t>Права:</t>
+  </si>
+  <si>
+    <t>Роля:</t>
+  </si>
+  <si>
+    <t>Административна страница за изтриване на съществуващи блог постове</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -213,19 +219,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -586,128 +787,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD156BAF-3CA4-4881-93A9-1D82848F476D}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9C0182-3613-4C72-A136-1ABC6D56239D}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD156BAF-3CA4-4881-93A9-1D82848F476D}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9C0182-3613-4C72-A136-1ABC6D56239D}">
-  <dimension ref="A2:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
